--- a/results/breast_cancer_rf_bin_AF.xlsx
+++ b/results/breast_cancer_rf_bin_AF.xlsx
@@ -1,43 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Statistics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Cofiguration</t>
+  </si>
+  <si>
+    <t>Silhouette (max)</t>
+  </si>
+  <si>
+    <t>Num Clusters</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>d0.5m100c5</t>
+  </si>
+  <si>
+    <t>d0.5m100c15</t>
+  </si>
+  <si>
+    <t>d0.5m100c30</t>
+  </si>
+  <si>
+    <t>d0.5m200c5</t>
+  </si>
+  <si>
+    <t>d0.5m200c15</t>
+  </si>
+  <si>
+    <t>d0.5m200c30</t>
+  </si>
+  <si>
+    <t>d0.5m500c5</t>
+  </si>
+  <si>
+    <t>d0.5m500c15</t>
+  </si>
+  <si>
+    <t>d0.5m500c30</t>
+  </si>
+  <si>
+    <t>d0.7m100c5</t>
+  </si>
+  <si>
+    <t>d0.7m100c15</t>
+  </si>
+  <si>
+    <t>d0.7m100c30</t>
+  </si>
+  <si>
+    <t>d0.7m200c5</t>
+  </si>
+  <si>
+    <t>d0.7m200c15</t>
+  </si>
+  <si>
+    <t>d0.7m200c30</t>
+  </si>
+  <si>
+    <t>d0.7m500c5</t>
+  </si>
+  <si>
+    <t>d0.7m500c15</t>
+  </si>
+  <si>
+    <t>d0.7m500c30</t>
+  </si>
+  <si>
+    <t>d0.9m100c5</t>
+  </si>
+  <si>
+    <t>d0.9m100c15</t>
+  </si>
+  <si>
+    <t>d0.9m100c30</t>
+  </si>
+  <si>
+    <t>d0.9m200c5</t>
+  </si>
+  <si>
+    <t>d0.9m200c15</t>
+  </si>
+  <si>
+    <t>d0.9m200c30</t>
+  </si>
+  <si>
+    <t>d0.9m500c5</t>
+  </si>
+  <si>
+    <t>d0.9m500c15</t>
+  </si>
+  <si>
+    <t>d0.9m500c30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +138,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,334 +437,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Silhouette (max)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Num Clusters</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.004210472106933594</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D2">
+        <v>0.008548259735107422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.005542755126953125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.009210109710693359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.00659942626953125</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.008434057235717773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.003970861434936523</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="D5">
+        <v>0.004323720932006836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.005740880966186523</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.005684137344360352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.00684809684753418</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.006715297698974609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.003963947296142578</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="D8">
+        <v>0.004085302352905273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.005567073822021484</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.006242513656616211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00682520866394043</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.00679779052734375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001974344253540039</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0.00202631950378418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.007240056991577148</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="D12">
+        <v>0.007479667663574219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>-1</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.00851130485534668</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D13">
+        <v>0.009249448776245117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.002028703689575195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.002219200134277344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.007390499114990234</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="D15">
+        <v>0.009363651275634766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01046609878540039</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.0116887092590332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.001941680908203125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.002008199691772461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.007161855697631836</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="D18">
+        <v>0.007422924041748047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>0.1182950610987502</v>
       </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01025986671447754</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.01047325134277344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>-1</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.001118183135986328</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="D20">
+        <v>0.001132488250732422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.00541377067565918</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.005446672439575195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>-1</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.008187532424926758</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="D22">
+        <v>0.008751392364501953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>-1</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.001096963882446289</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="D23">
+        <v>0.001158475875854492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.005401611328125</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.005565881729125977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>-1</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.01630496978759766</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="D25">
+        <v>0.01668787002563477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>-1</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.001139640808105469</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="D26">
+        <v>0.00112152099609375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>0.1099580756488892</v>
       </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.005373001098632812</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.005463838577270508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>0.1207540041958555</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.0216829776763916</v>
+      <c r="D28">
+        <v>0.02300238609313965</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>